--- a/output/2024-04-07 Postgres insert count.xlsx
+++ b/output/2024-04-07 Postgres insert count.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg\Repositories\Lookup-Tables\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32702883-AE33-495F-96C0-061F7AB3AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C22E9D-3548-4F9F-B6C8-87852AA5194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{EDD47FC4-FF7D-4012-A995-7DC28037C457}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EDD47FC4-FF7D-4012-A995-7DC28037C457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="2024_04_06 run" sheetId="1" r:id="rId5"/>
+    <sheet name="2024_04_08 run" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="16">
   <si>
     <t>fiscal_year</t>
   </si>
@@ -130,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,7 +142,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +172,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Greg Sanders" refreshedDate="45389.02343645833" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="125" xr:uid="{2B4A5A55-8C3A-49EC-87BC-9A6B97A944E2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E126" sheet="Sheet1"/>
+    <worksheetSource ref="A1:E126" sheet="2024_04_06 run"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="fiscal_year" numFmtId="0">
@@ -1139,7 +1139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A262886A-13A5-4952-B0A5-78BF86945031}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A262886A-13A5-4952-B0A5-78BF86945031}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D165" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1742,7 +1742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D52B75DF-F8AC-41D3-A9C4-DB0C58469F2A}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D52B75DF-F8AC-41D3-A9C4-DB0C58469F2A}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C75ADB71-5785-44C9-816F-47DA4FF19491}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C75ADB71-5785-44C9-816F-47DA4FF19491}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1976,7 +1976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6755C1-D426-4B59-8E93-ED2CCABDE53F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6755C1-D426-4B59-8E93-ED2CCABDE53F}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -2394,15 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADF025D-7AA1-4AB3-9F58-99AD0EE6B452}">
   <dimension ref="A3:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A96" activeCellId="33" sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35:A36 A38:A39 A41:A42 A44:A45 A47:A48 A50:A51 A53:A54 A56:A57 A59:A60 A62:A63 A65:A66 A68:A69 A71:A72 A74:A76 A78:A80 A82:A84 A86:A88 A90:A92 A94:A96 A98:A100 A102:A104 A106:A108 A110:A112 A114:A116 A118:A120 A122:A124 A126:A128 A130:A132 A134:A136 A138:A140 A142:A144 A146:A147 A149:A150 A152:A153 A155:A156 A158:A159 A161:A162 A164"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="1" activeRow="95" previousRow="95" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,7 +5043,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>230</v>
       </c>
     </row>
@@ -5063,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AF368-6265-44AE-B62E-549F07DE05B2}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,4 +7207,2025 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A450B-56EA-4208-BCCD-B91D41942492}">
+  <dimension ref="A1:E118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2307757</v>
+      </c>
+      <c r="D2">
+        <v>217568965355.76999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2927664</v>
+      </c>
+      <c r="D3">
+        <v>511409029783.34497</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2276754</v>
+      </c>
+      <c r="D4">
+        <v>453087824485.38202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2311888</v>
+      </c>
+      <c r="D5">
+        <v>436516563400.05603</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5021482</v>
+      </c>
+      <c r="D6">
+        <v>333366978403.80603</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1746422</v>
+      </c>
+      <c r="D7">
+        <v>233185499058.33899</v>
+      </c>
+      <c r="E7">
+        <v>233185499061.07001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>202959</v>
+      </c>
+      <c r="D8">
+        <v>9815112263.5699997</v>
+      </c>
+      <c r="E8">
+        <v>9815112263.5699997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>727431</v>
+      </c>
+      <c r="D9">
+        <v>93321783883.850006</v>
+      </c>
+      <c r="E9">
+        <v>93321783883.850006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1388484</v>
+      </c>
+      <c r="D10">
+        <v>268287652301.94601</v>
+      </c>
+      <c r="E10">
+        <v>268287664451.82001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1175861</v>
+      </c>
+      <c r="D11">
+        <v>307561417612.5</v>
+      </c>
+      <c r="E11">
+        <v>307562279781.47998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>899115.31980000006</v>
+      </c>
+      <c r="E12">
+        <v>881986.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1987</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>-171000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1994</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>230094</v>
+      </c>
+      <c r="D14">
+        <v>117964116539</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1970</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1809</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>2736482040.9000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1982</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1848</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>891945580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1993</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>2712</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>2934156957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>32860</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>27312828123.900002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>3031221.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>567750</v>
+      </c>
+      <c r="D21">
+        <v>205302457889.95599</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>763966</v>
+      </c>
+      <c r="D22">
+        <v>139125853330.78601</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1358521</v>
+      </c>
+      <c r="D23">
+        <v>160481119817.258</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2252925</v>
+      </c>
+      <c r="D24">
+        <v>281925405610.492</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4185509</v>
+      </c>
+      <c r="D25">
+        <v>417317345117.92603</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>419937</v>
+      </c>
+      <c r="D26">
+        <v>185742657627.17401</v>
+      </c>
+      <c r="E26">
+        <v>185743788104.60999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1490396</v>
+      </c>
+      <c r="D27">
+        <v>213448008728.78699</v>
+      </c>
+      <c r="E27">
+        <v>213447362879.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2009</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1244572</v>
+      </c>
+      <c r="D28">
+        <v>258888790192.95901</v>
+      </c>
+      <c r="E28">
+        <v>258888790060.82001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>202205</v>
+      </c>
+      <c r="D29">
+        <v>9359669004.4899998</v>
+      </c>
+      <c r="E29">
+        <v>9359669004.4899998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>216286</v>
+      </c>
+      <c r="D30">
+        <v>9549372257.8400002</v>
+      </c>
+      <c r="E30">
+        <v>9549372257.8400002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1991</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>249091</v>
+      </c>
+      <c r="D31">
+        <v>136154193844</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>227903</v>
+      </c>
+      <c r="D32">
+        <v>121373382142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1997</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>256866</v>
+      </c>
+      <c r="D33">
+        <v>117203970180</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>1372925.2812999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>3056736</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>194948</v>
+      </c>
+      <c r="D36">
+        <v>8425313236.6323004</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2856181</v>
+      </c>
+      <c r="D37">
+        <v>257359629071.81299</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1985</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1799</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>1551420893.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1986</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>1838</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>1187949278.8499999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1996</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>8777</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>4150158274.9099998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>6713.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>11105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>2467461929.3000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>11544</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>1247462476.8199999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>411732</v>
+      </c>
+      <c r="D44">
+        <v>88847752490.149506</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>539170</v>
+      </c>
+      <c r="D45">
+        <v>107507962598.67599</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2565289</v>
+      </c>
+      <c r="D46">
+        <v>269822179140.09399</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2011</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3205469</v>
+      </c>
+      <c r="D47">
+        <v>529909130663.95502</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4231649</v>
+      </c>
+      <c r="D48">
+        <v>287216989832.93597</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5174110</v>
+      </c>
+      <c r="D49">
+        <v>323284502297.966</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2022</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6645255</v>
+      </c>
+      <c r="D50">
+        <v>693388861275.23096</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>291462</v>
+      </c>
+      <c r="D51">
+        <v>156513300050.595</v>
+      </c>
+      <c r="E51">
+        <v>156673991853.39999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2008</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1940334</v>
+      </c>
+      <c r="D52">
+        <v>258183027063.90201</v>
+      </c>
+      <c r="E52">
+        <v>272084950947.73999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2013</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>238058</v>
+      </c>
+      <c r="D53">
+        <v>10660006571.110001</v>
+      </c>
+      <c r="E53">
+        <v>10660006571.110001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>1307180</v>
+      </c>
+      <c r="D54">
+        <v>290521335429.48297</v>
+      </c>
+      <c r="E54">
+        <v>290521335195.59003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>1825</v>
+      </c>
+      <c r="D55">
+        <v>2426093388.1199002</v>
+      </c>
+      <c r="E55">
+        <v>2425955277.3000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1989</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>2813</v>
+      </c>
+      <c r="D56">
+        <v>1636683946</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1995</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>239997</v>
+      </c>
+      <c r="D57">
+        <v>118040376008</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1999</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>271684</v>
+      </c>
+      <c r="D58">
+        <v>124700768016.39999</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2004</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>1977972.0639</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>122875</v>
+      </c>
+      <c r="D60">
+        <v>6214060175.3116999</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2009</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>161851</v>
+      </c>
+      <c r="D61">
+        <v>7259456794.8626003</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1962</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>5696246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1980</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>297556850.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1991</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1949</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1600668398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1995</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>4670</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>3652587545.8699999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>26879</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>298272849.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2005</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>55147.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2005</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>1939319</v>
+      </c>
+      <c r="D69">
+        <v>196075245031.125</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2010</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>3350079</v>
+      </c>
+      <c r="D70">
+        <v>530618207041.77502</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2016</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>2059620</v>
+      </c>
+      <c r="D71">
+        <v>247856689926.487</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2023</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>6667077</v>
+      </c>
+      <c r="D72">
+        <v>757169854900.13599</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2004</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>643412</v>
+      </c>
+      <c r="D73">
+        <v>178758400406.14301</v>
+      </c>
+      <c r="E73">
+        <v>178756981809.17999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2010</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>193686</v>
+      </c>
+      <c r="D74">
+        <v>30709556862.709999</v>
+      </c>
+      <c r="E74">
+        <v>30709556862.709999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2015</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>2856429</v>
+      </c>
+      <c r="D75">
+        <v>255471009664.10001</v>
+      </c>
+      <c r="E75">
+        <v>255471009664.10001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2016</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>2761714</v>
+      </c>
+      <c r="D76">
+        <v>227629021271.14001</v>
+      </c>
+      <c r="E76">
+        <v>227629021271.14001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>1272695</v>
+      </c>
+      <c r="D77">
+        <v>335795205672.448</v>
+      </c>
+      <c r="E77">
+        <v>335795205319.23999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1988</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>7652670</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1990</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>217182</v>
+      </c>
+      <c r="D79">
+        <v>120350129405</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1998</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>259810</v>
+      </c>
+      <c r="D80">
+        <v>118132963568</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2001</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>589000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>185160</v>
+      </c>
+      <c r="D82">
+        <v>28560945072.699001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>212959</v>
+      </c>
+      <c r="D83">
+        <v>8903852404.9487</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2017</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>707262</v>
+      </c>
+      <c r="D84">
+        <v>93960144164.725204</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1967</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1973</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1977</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1979</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>912</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>4405995486.3100004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1988</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1862</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>3058722103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1989</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>1518</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>3614072753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1990</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>1706</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>2710272377.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1999</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>89245</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>40535884551.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2001</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>2704285.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2003</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>697600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2021</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>52018</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>15853534875.950001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2007</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2365738</v>
+      </c>
+      <c r="D96">
+        <v>236463604020.34399</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2015</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1518592</v>
+      </c>
+      <c r="D97">
+        <v>184321346847.46301</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2019</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5182397</v>
+      </c>
+      <c r="D98">
+        <v>300238067280.841</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2024</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1586095</v>
+      </c>
+      <c r="D99">
+        <v>144392711927.34601</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>230328</v>
+      </c>
+      <c r="D100">
+        <v>134222343228.45399</v>
+      </c>
+      <c r="E100">
+        <v>134230472446.53999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2005</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>984563</v>
+      </c>
+      <c r="D101">
+        <v>195085703055.67401</v>
+      </c>
+      <c r="E101">
+        <v>195085351734.26999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1992</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>240574</v>
+      </c>
+      <c r="D102">
+        <v>123406660550</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1996</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>260836</v>
+      </c>
+      <c r="D103">
+        <v>119666794871</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2000</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>26900</v>
+      </c>
+      <c r="D104">
+        <v>1652230442.4354</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2005</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>55744.080499999996</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2006</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>1542.89</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2012</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>196335</v>
+      </c>
+      <c r="D107">
+        <v>8665560052.6476994</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2013</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>215513</v>
+      </c>
+      <c r="D108">
+        <v>8022519483.8234997</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2016</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>2764158</v>
+      </c>
+      <c r="D109">
+        <v>228728927819.09601</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1966</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1974</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>47557300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1983</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>1648</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>1197340749.1500001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1984</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>1924</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>1181650120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1987</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>2559</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>4113977529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1992</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>2400</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>2566210274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1994</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>2992</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>16716838097.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1998</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>56879</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>30500791029.419998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2004</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>2016264.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/2024-04-07 Postgres insert count.xlsx
+++ b/output/2024-04-07 Postgres insert count.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg\Repositories\Lookup-Tables\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C22E9D-3548-4F9F-B6C8-87852AA5194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6466465C-D49C-4C8B-8A00-05D11D8C2E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EDD47FC4-FF7D-4012-A995-7DC28037C457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{EDD47FC4-FF7D-4012-A995-7DC28037C457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="2024_04_06 run" sheetId="1" r:id="rId5"/>
-    <sheet name="2024_04_08 run" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="2024_04_06 run" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="2024_04_08 run" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
+    <pivotCache cacheId="15" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="16">
   <si>
     <t>fiscal_year</t>
   </si>
@@ -131,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,11 +145,42 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -258,6 +292,95 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Greg Sanders" refreshedDate="45392.958391782406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{7E4A1410-AC3B-4AE9-883D-4EF6F367F502}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E118" sheet="2024_04_08 run"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="fiscal_year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1962" maxValue="2024" count="53">
+        <n v="2006"/>
+        <n v="2012"/>
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2020"/>
+        <n v="2007"/>
+        <n v="2011"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="1987"/>
+        <n v="1994"/>
+        <n v="1970"/>
+        <n v="1981"/>
+        <n v="1982"/>
+        <n v="1993"/>
+        <n v="1997"/>
+        <n v="2002"/>
+        <n v="2000"/>
+        <n v="2003"/>
+        <n v="2004"/>
+        <n v="2009"/>
+        <n v="1991"/>
+        <n v="2015"/>
+        <n v="1985"/>
+        <n v="1986"/>
+        <n v="1996"/>
+        <n v="2001"/>
+        <n v="2008"/>
+        <n v="2019"/>
+        <n v="2023"/>
+        <n v="1989"/>
+        <n v="1995"/>
+        <n v="1999"/>
+        <n v="1962"/>
+        <n v="1980"/>
+        <n v="2005"/>
+        <n v="2010"/>
+        <n v="2016"/>
+        <n v="1988"/>
+        <n v="1990"/>
+        <n v="1998"/>
+        <n v="1967"/>
+        <n v="1973"/>
+        <n v="1977"/>
+        <n v="1979"/>
+        <n v="2024"/>
+        <n v="1992"/>
+        <n v="1966"/>
+        <n v="1974"/>
+        <n v="1983"/>
+        <n v="1984"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="4">
+        <s v="CTU but not on update list"/>
+        <s v="Match"/>
+        <s v="To be deleted from Contract.FPDS"/>
+        <s v="To be inserted into Contract.FPDS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="n" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6667077"/>
+    </cacheField>
+    <cacheField name="FPDSobl" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-171000" maxValue="757169854900.13599"/>
+    </cacheField>
+    <cacheField name="PostgresObl" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="335795205319.23999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="125">
   <r>
@@ -1138,8 +1261,832 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="117">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2307757"/>
+    <n v="217568965355.76999"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2927664"/>
+    <n v="511409029783.34497"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2276754"/>
+    <n v="453087824485.38202"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2311888"/>
+    <n v="436516563400.05603"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5021482"/>
+    <n v="333366978403.80603"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1746422"/>
+    <n v="233185499058.33899"/>
+    <n v="233185499061.07001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="202959"/>
+    <n v="9815112263.5699997"/>
+    <n v="9815112263.5699997"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="727431"/>
+    <n v="93321783883.850006"/>
+    <n v="93321783883.850006"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1388484"/>
+    <n v="268287652301.94601"/>
+    <n v="268287664451.82001"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="1175861"/>
+    <n v="307561417612.5"/>
+    <n v="307562279781.47998"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="899115.31980000006"/>
+    <n v="881986.86"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="-171000"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="230094"/>
+    <n v="117964116539"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="2"/>
+    <s v="NULL"/>
+    <n v="12164"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="1809"/>
+    <s v="NULL"/>
+    <n v="2736482040.9000001"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="1848"/>
+    <s v="NULL"/>
+    <n v="891945580"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="2712"/>
+    <s v="NULL"/>
+    <n v="2934156957"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="32860"/>
+    <s v="NULL"/>
+    <n v="27312828123.900002"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="NULL"/>
+    <n v="3031221.28"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="567750"/>
+    <n v="205302457889.95599"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="763966"/>
+    <n v="139125853330.78601"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="1358521"/>
+    <n v="160481119817.258"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="2252925"/>
+    <n v="281925405610.492"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="4185509"/>
+    <n v="417317345117.92603"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="419937"/>
+    <n v="185742657627.17401"/>
+    <n v="185743788104.60999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1490396"/>
+    <n v="213448008728.78699"/>
+    <n v="213447362879.69"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="1244572"/>
+    <n v="258888790192.95901"/>
+    <n v="258888790060.82001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="202205"/>
+    <n v="9359669004.4899998"/>
+    <n v="9359669004.4899998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="216286"/>
+    <n v="9549372257.8400002"/>
+    <n v="9549372257.8400002"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="249091"/>
+    <n v="136154193844"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="227903"/>
+    <n v="121373382142"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="256866"/>
+    <n v="117203970180"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="1372925.2812999999"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="3056736"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="194948"/>
+    <n v="8425313236.6323004"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="2856181"/>
+    <n v="257359629071.81299"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="1799"/>
+    <s v="NULL"/>
+    <n v="1551420893.73"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="1838"/>
+    <s v="NULL"/>
+    <n v="1187949278.8499999"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="8777"/>
+    <s v="NULL"/>
+    <n v="4150158274.9099998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="4"/>
+    <s v="NULL"/>
+    <n v="6713.69"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="11105"/>
+    <s v="NULL"/>
+    <n v="2467461929.3000002"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="11544"/>
+    <s v="NULL"/>
+    <n v="1247462476.8199999"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="411732"/>
+    <n v="88847752490.149506"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="539170"/>
+    <n v="107507962598.67599"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="2565289"/>
+    <n v="269822179140.09399"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="3205469"/>
+    <n v="529909130663.95502"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="4231649"/>
+    <n v="287216989832.93597"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="5174110"/>
+    <n v="323284502297.966"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="6645255"/>
+    <n v="693388861275.23096"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="291462"/>
+    <n v="156513300050.595"/>
+    <n v="156673991853.39999"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="1940334"/>
+    <n v="258183027063.90201"/>
+    <n v="272084950947.73999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="238058"/>
+    <n v="10660006571.110001"/>
+    <n v="10660006571.110001"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="1307180"/>
+    <n v="290521335429.48297"/>
+    <n v="290521335195.59003"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="1825"/>
+    <n v="2426093388.1199002"/>
+    <n v="2425955277.3000002"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="2813"/>
+    <n v="1636683946"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="2"/>
+    <n v="239997"/>
+    <n v="118040376008"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="2"/>
+    <n v="271684"/>
+    <n v="124700768016.39999"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="1977972.0639"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="122875"/>
+    <n v="6214060175.3116999"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="161851"/>
+    <n v="7259456794.8626003"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NULL"/>
+    <n v="5696246"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="3"/>
+    <n v="1214"/>
+    <s v="NULL"/>
+    <n v="297556850.25"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="1949"/>
+    <s v="NULL"/>
+    <n v="1600668398"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="4670"/>
+    <s v="NULL"/>
+    <n v="3652587545.8699999"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="26879"/>
+    <s v="NULL"/>
+    <n v="298272849.62"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="3"/>
+    <n v="7"/>
+    <s v="NULL"/>
+    <n v="55147.88"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NULL"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="1939319"/>
+    <n v="196075245031.125"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="3350079"/>
+    <n v="530618207041.77502"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="2059620"/>
+    <n v="247856689926.487"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="6667077"/>
+    <n v="757169854900.13599"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="643412"/>
+    <n v="178758400406.14301"/>
+    <n v="178756981809.17999"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <n v="193686"/>
+    <n v="30709556862.709999"/>
+    <n v="30709556862.709999"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="2856429"/>
+    <n v="255471009664.10001"/>
+    <n v="255471009664.10001"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <n v="2761714"/>
+    <n v="227629021271.14001"/>
+    <n v="227629021271.14001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1272695"/>
+    <n v="335795205672.448"/>
+    <n v="335795205319.23999"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="2"/>
+    <n v="57"/>
+    <n v="7652670"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="2"/>
+    <n v="217182"/>
+    <n v="120350129405"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="259810"/>
+    <n v="118132963568"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="589000"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="2"/>
+    <n v="185160"/>
+    <n v="28560945072.699001"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="212959"/>
+    <n v="8903852404.9487"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="707262"/>
+    <n v="93960144164.725204"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NULL"/>
+    <n v="15397"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NULL"/>
+    <n v="91809"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NULL"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="3"/>
+    <n v="912"/>
+    <s v="NULL"/>
+    <n v="4405995486.3100004"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="3"/>
+    <n v="1862"/>
+    <s v="NULL"/>
+    <n v="3058722103"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="3"/>
+    <n v="1518"/>
+    <s v="NULL"/>
+    <n v="3614072753"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="3"/>
+    <n v="1706"/>
+    <s v="NULL"/>
+    <n v="2710272377.25"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="3"/>
+    <n v="89245"/>
+    <s v="NULL"/>
+    <n v="40535884551.82"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="10"/>
+    <s v="NULL"/>
+    <n v="2704285.22"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="11"/>
+    <s v="NULL"/>
+    <n v="697600"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="52018"/>
+    <s v="NULL"/>
+    <n v="15853534875.950001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="2365738"/>
+    <n v="236463604020.34399"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="1518592"/>
+    <n v="184321346847.46301"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="5182397"/>
+    <n v="300238067280.841"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="1586095"/>
+    <n v="144392711927.34601"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="230328"/>
+    <n v="134222343228.45399"/>
+    <n v="134230472446.53999"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+    <n v="984563"/>
+    <n v="195085703055.67401"/>
+    <n v="195085351734.26999"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <n v="240574"/>
+    <n v="123406660550"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="260836"/>
+    <n v="119666794871"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="26900"/>
+    <n v="1652230442.4354"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="55744.080499999996"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1542.89"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="196335"/>
+    <n v="8665560052.6476994"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="215513"/>
+    <n v="8022519483.8234997"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="2"/>
+    <n v="2764158"/>
+    <n v="228728927819.09601"/>
+    <s v="NULL"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+    <n v="3"/>
+    <s v="NULL"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="3"/>
+    <n v="3"/>
+    <s v="NULL"/>
+    <n v="47557300"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="3"/>
+    <n v="1648"/>
+    <s v="NULL"/>
+    <n v="1197340749.1500001"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="3"/>
+    <n v="1924"/>
+    <s v="NULL"/>
+    <n v="1181650120"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="2559"/>
+    <s v="NULL"/>
+    <n v="4113977529"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="3"/>
+    <n v="2400"/>
+    <s v="NULL"/>
+    <n v="2566210274"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="2992"/>
+    <s v="NULL"/>
+    <n v="16716838097.27"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="3"/>
+    <n v="56879"/>
+    <s v="NULL"/>
+    <n v="30500791029.419998"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="14"/>
+    <s v="NULL"/>
+    <n v="2016264.94"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A262886A-13A5-4952-B0A5-78BF86945031}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A262886A-13A5-4952-B0A5-78BF86945031}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D165" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1725,7 +2672,7 @@
     <dataField name="Sum of PostgresObl" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1742,7 +2689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D52B75DF-F8AC-41D3-A9C4-DB0C58469F2A}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D52B75DF-F8AC-41D3-A9C4-DB0C58469F2A}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1894,7 +2841,7 @@
     <dataField name="Sum of PostgresObl" fld="4" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1911,7 +2858,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C75ADB71-5785-44C9-816F-47DA4FF19491}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C75ADB71-5785-44C9-816F-47DA4FF19491}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1955,7 +2902,7 @@
     <dataField name="Sum of n" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -1976,7 +2923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6755C1-D426-4B59-8E93-ED2CCABDE53F}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C6755C1-D426-4B59-8E93-ED2CCABDE53F}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -2063,6 +3010,945 @@
   <dataFields count="1">
     <dataField name="Sum of n" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6D9E6F1-7CB5-4975-AEFF-C5978AD34B01}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D57" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="54">
+        <item x="29"/>
+        <item x="49"/>
+        <item x="12"/>
+        <item x="44"/>
+        <item x="13"/>
+        <item x="50"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="30"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="31"/>
+        <item x="48"/>
+        <item x="36"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="35"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="54">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of FPDSobl" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of PostgresObl" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of n" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{308521A2-D102-4623-8F01-9B5FC5184ACA}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D174" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="54">
+        <item x="35"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="36"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="40"/>
+        <item x="32"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="48"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="34"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="38"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="39"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="31"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="171">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of n" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FPDSobl" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of PostgresObl" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="43"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="44"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="45"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5053,2155 +6939,789 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AF368-6265-44AE-B62E-549F07DE05B2}">
-  <dimension ref="A1:E126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF25A93-2E6D-4B56-8D24-0619DDB9D046}">
+  <dimension ref="A3:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5696246</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15397</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12164</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>91809</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>47557300</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4405995486.3100004</v>
+      </c>
+      <c r="D11" s="5">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>297556850.25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2736482040.9000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>891945580</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1197340749.1500001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1181650120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1551420893.73</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1187949278.8499999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-171000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4113977529</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7652670</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3058722103</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1636683946</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3614072753</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="5">
+        <v>120350129405</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2710272377.25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>218888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B23" s="5">
+        <v>136154193844</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1600668398</v>
+      </c>
+      <c r="D23" s="5">
+        <v>251040</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B24" s="5">
+        <v>123406660550</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2566210274</v>
+      </c>
+      <c r="D24" s="5">
+        <v>242974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B25" s="5">
+        <v>121373382142</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2934156957</v>
+      </c>
+      <c r="D25" s="5">
+        <v>230615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B26" s="5">
+        <v>117964116539</v>
+      </c>
+      <c r="C26" s="5">
+        <v>16716838097.27</v>
+      </c>
+      <c r="D26" s="5">
+        <v>233086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B27" s="5">
+        <v>118040376008</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3652587545.8699999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>244667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B28" s="5">
+        <v>119666794871</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4150158274.9099998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>269613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B29" s="5">
+        <v>117203970180</v>
+      </c>
+      <c r="C29" s="5">
+        <v>27312828123.900002</v>
+      </c>
+      <c r="D29" s="5">
+        <v>289726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B30" s="5">
+        <v>118132963568</v>
+      </c>
+      <c r="C30" s="5">
+        <v>30500791029.419998</v>
+      </c>
+      <c r="D30" s="5">
+        <v>316689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B31" s="5">
+        <v>124700768016.39999</v>
+      </c>
+      <c r="C31" s="5">
+        <v>40535884551.82</v>
+      </c>
+      <c r="D31" s="5">
+        <v>360929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="5">
+        <v>206954688332.39139</v>
+      </c>
+      <c r="C32" s="5">
+        <v>298272849.62</v>
+      </c>
+      <c r="D32" s="5">
+        <v>621529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="5">
+        <v>223067894904.70151</v>
+      </c>
+      <c r="C33" s="5">
+        <v>134233176731.76001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>642083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B34" s="5">
+        <v>264023253661.80231</v>
+      </c>
+      <c r="C34" s="5">
+        <v>156677023074.67999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>830698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B35" s="5">
+        <v>324869911609.46002</v>
+      </c>
+      <c r="C35" s="5">
+        <v>185744485704.61002</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1183972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B36" s="5">
+        <v>339226531605.97742</v>
+      </c>
+      <c r="C36" s="5">
+        <v>178758998074.12</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2001974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>2005</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1939319</v>
-      </c>
-      <c r="D2">
-        <v>196075245031.125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B37" s="5">
+        <v>391151263119.98962</v>
+      </c>
+      <c r="C37" s="5">
+        <v>195085406882.14999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2923901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="5">
+        <v>431005238674.49701</v>
+      </c>
+      <c r="C38" s="5">
+        <v>213447369593.38</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3798165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B39" s="5">
+        <v>469629702509.80298</v>
+      </c>
+      <c r="C39" s="5">
+        <v>233185499061.07001</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4112161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B40" s="5">
+        <v>534191092575.44391</v>
+      </c>
+      <c r="C40" s="5">
+        <v>272084950947.73999</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4628505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B41" s="5">
+        <v>548027861099.55359</v>
+      </c>
+      <c r="C41" s="5">
+        <v>258888790060.82001</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3659349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>2010</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3350079</v>
-      </c>
-      <c r="D3">
-        <v>530618207041.77502</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B42" s="5">
+        <v>559179152114.474</v>
+      </c>
+      <c r="C42" s="5">
+        <v>30709556862.709999</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3728925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="5">
+        <v>538334443900.58734</v>
+      </c>
+      <c r="C43" s="5">
+        <v>9815112263.5699997</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3603376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B44" s="5">
+        <v>520075227969.56268</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9359669004.4899998</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3326204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B45" s="5">
+        <v>461110343969.20551</v>
+      </c>
+      <c r="C45" s="5">
+        <v>10660006571.110001</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2730325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B46" s="5">
+        <v>445420415805.00476</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9549372257.8400002</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2741133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B47" s="5">
+        <v>441680975919.276</v>
+      </c>
+      <c r="C47" s="5">
+        <v>255471009664.10001</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7231202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>2016</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2059620</v>
-      </c>
-      <c r="D4">
-        <v>247856689926.487</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B48" s="5">
+        <v>476585617745.58301</v>
+      </c>
+      <c r="C48" s="5">
+        <v>227629021271.14001</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7585492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="5">
+        <v>511277148275.11127</v>
+      </c>
+      <c r="C49" s="5">
+        <v>93321783883.850006</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5620203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="5">
+        <v>555445205317.00195</v>
+      </c>
+      <c r="C50" s="5">
+        <v>268287664451.82001</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5620133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B51" s="5">
+        <v>589770520262.24402</v>
+      </c>
+      <c r="C51" s="5">
+        <v>290521335195.59003</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6489577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="5">
+        <v>669162184076.25403</v>
+      </c>
+      <c r="C52" s="5">
+        <v>338262667248.53998</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6305282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="5">
+        <v>630845919910.46606</v>
+      </c>
+      <c r="C53" s="5">
+        <v>323415814657.42999</v>
+      </c>
+      <c r="D53" s="5">
+        <v>6401989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="5">
+        <v>693389760390.55078</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1248344463.6799998</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6656811</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>2023</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>6667077</v>
-      </c>
-      <c r="D5">
-        <v>757169854900.13599</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>643369</v>
-      </c>
-      <c r="D6">
-        <v>178740249156.59299</v>
-      </c>
-      <c r="E6">
-        <v>178740249115.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1272695</v>
-      </c>
-      <c r="D7">
-        <v>335795205672.448</v>
-      </c>
-      <c r="E7">
-        <v>335795205319.23999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1988</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>7652670</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1990</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>217182</v>
-      </c>
-      <c r="D9">
-        <v>120350129405</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1998</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>259810</v>
-      </c>
-      <c r="D10">
-        <v>118132963568</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>710000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>185160</v>
-      </c>
-      <c r="D12">
-        <v>28560945072.699001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>212959</v>
-      </c>
-      <c r="D13">
-        <v>8903852404.9487</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>707263</v>
-      </c>
-      <c r="D14">
-        <v>93960151164.725204</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1967</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>15397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1973</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>91809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1977</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1979</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>912</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>4405995486.3100004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1988</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>1862</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>3058722103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1989</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1518</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>3614072753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1990</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>1706</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>2710272377.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1999</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>89245</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>40535884551.82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2001</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>13744371.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2003</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>4808265.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2011</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>202959</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>9815112263.5699997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2013</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>238058</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>10660006571.110001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2014</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>216286</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>9549372257.8400002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2016</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>2761714</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>227629021271.14001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>52018</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>15853534875.950001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>411732</v>
-      </c>
-      <c r="D30">
-        <v>88847752490.149506</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>539170</v>
-      </c>
-      <c r="D31">
-        <v>107507962598.67599</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2008</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>2565289</v>
-      </c>
-      <c r="D32">
-        <v>269822179140.09399</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2011</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>3205469</v>
-      </c>
-      <c r="D33">
-        <v>529909130663.95502</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2018</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>4231649</v>
-      </c>
-      <c r="D34">
-        <v>287216989832.93597</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>5174110</v>
-      </c>
-      <c r="D35">
-        <v>323284502297.966</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2022</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>6645255</v>
-      </c>
-      <c r="D36">
-        <v>693388861275.23096</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2002</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>291423</v>
-      </c>
-      <c r="D37">
-        <v>156512904036.845</v>
-      </c>
-      <c r="E37">
-        <v>156512903996.67999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2008</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>1940283</v>
-      </c>
-      <c r="D38">
-        <v>258154989793.992</v>
-      </c>
-      <c r="E38">
-        <v>272056913677.82999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2019</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1297596</v>
-      </c>
-      <c r="D39">
-        <v>289532452981.40302</v>
-      </c>
-      <c r="E39">
-        <v>289532452747.51001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2023</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>1825</v>
-      </c>
-      <c r="D40">
-        <v>2426093388.1199002</v>
-      </c>
-      <c r="E40">
+      <c r="B55" s="5">
+        <v>759595948288.25586</v>
+      </c>
+      <c r="C55" s="5">
         <v>2425955277.3000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1989</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>2813</v>
-      </c>
-      <c r="D41">
-        <v>1636683946</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1995</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>239997</v>
-      </c>
-      <c r="D42">
-        <v>118040376008</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1999</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>271684</v>
-      </c>
-      <c r="D43">
-        <v>124700768016.39999</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2004</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>27</v>
-      </c>
-      <c r="D44">
-        <v>5162632.1264000004</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2008</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>122882</v>
-      </c>
-      <c r="D45">
-        <v>6213923641.3578997</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2009</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>161852</v>
-      </c>
-      <c r="D46">
-        <v>7259463589.8626003</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1962</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>5696246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1980</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>1214</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>297556850.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1991</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>1949</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>1600668398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1995</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>4670</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>3652587545.8699999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2000</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>26879</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>298272849.62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2005</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>9461085.0800000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2007</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>19400568.879999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2017</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>727410</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54">
-        <v>93322131891.389999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2023</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2000</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>567750</v>
-      </c>
-      <c r="D56">
-        <v>205302457889.95599</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2003</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>763966</v>
-      </c>
-      <c r="D57">
-        <v>139125853330.78601</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2004</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>1358521</v>
-      </c>
-      <c r="D58">
-        <v>160481119817.258</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2009</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>2252925</v>
-      </c>
-      <c r="D59">
-        <v>281925405610.492</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2017</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>4185509</v>
-      </c>
-      <c r="D60">
-        <v>417317345117.92603</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2003</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>419921</v>
-      </c>
-      <c r="D61">
-        <v>185739677440.67401</v>
-      </c>
-      <c r="E61">
-        <v>185739677438.85001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2006</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62">
-        <v>1490332</v>
-      </c>
-      <c r="D62">
-        <v>213436271775.83701</v>
-      </c>
-      <c r="E62">
-        <v>213436271805.73999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2009</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>1244486</v>
-      </c>
-      <c r="D63">
-        <v>258842991899.19901</v>
-      </c>
-      <c r="E63">
-        <v>258842991767.06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2012</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>638133.56999999995</v>
-      </c>
-      <c r="E64">
-        <v>638133.56999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1991</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65">
-        <v>249091</v>
-      </c>
-      <c r="D65">
-        <v>136154193844</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1993</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>227903</v>
-      </c>
-      <c r="D66">
-        <v>121373382142</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1997</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67">
-        <v>256866</v>
-      </c>
-      <c r="D67">
-        <v>117203970180</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2002</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68">
-        <v>44</v>
-      </c>
-      <c r="D68">
-        <v>2387026.2812999999</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2003</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>58</v>
-      </c>
-      <c r="D69">
-        <v>4380838</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2007</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2011</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>194948</v>
-      </c>
-      <c r="D71">
-        <v>8425313236.6323004</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2015</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <v>2856181</v>
-      </c>
-      <c r="D72">
-        <v>257359629071.81299</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1985</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>1799</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>1551420893.73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1986</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>1838</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74">
-        <v>1187949278.8499999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1996</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>8777</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75">
-        <v>4150158274.9099998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2006</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76">
-        <v>11097787.640000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2009</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>86</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>45798293.759999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2015</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>2856429</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>255471009664.10001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2018</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>4718</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79">
-        <v>59436817.880000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2020</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80">
-        <v>11105</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>2467461929.3000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2022</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81">
-        <v>11544</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81">
-        <v>1247462476.8199999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2006</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>2307757</v>
-      </c>
-      <c r="D82">
-        <v>217568965355.76999</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2012</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>2927664</v>
-      </c>
-      <c r="D83">
-        <v>511409029783.34497</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2013</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84">
-        <v>2276754</v>
-      </c>
-      <c r="D84">
-        <v>453087824485.38202</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2014</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85">
-        <v>2311888</v>
-      </c>
-      <c r="D85">
-        <v>436516563400.05603</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2020</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86">
-        <v>5021482</v>
-      </c>
-      <c r="D86">
-        <v>333366978403.80603</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2007</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87">
-        <v>1746346</v>
-      </c>
-      <c r="D87">
-        <v>233166098489.45901</v>
-      </c>
-      <c r="E87">
-        <v>233166098492.19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2017</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88">
-        <v>21</v>
-      </c>
-      <c r="D88">
-        <v>-348007.54</v>
-      </c>
-      <c r="E88">
-        <v>-348007.54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2018</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89">
-        <v>1383766</v>
-      </c>
-      <c r="D89">
-        <v>268228215484.06601</v>
-      </c>
-      <c r="E89">
-        <v>268228227633.94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2021</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90">
-        <v>1175861</v>
-      </c>
-      <c r="D90">
-        <v>307561417612.5</v>
-      </c>
-      <c r="E90">
-        <v>307562279781.47998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2022</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91">
-        <v>12</v>
-      </c>
-      <c r="D91">
-        <v>899115.31980000006</v>
-      </c>
-      <c r="E91">
-        <v>881986.86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1987</v>
-      </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>-171000</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1994</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93">
-        <v>230094</v>
-      </c>
-      <c r="D93">
-        <v>117964116539</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1970</v>
-      </c>
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94">
-        <v>12164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1981</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>1809</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95">
-        <v>2736482040.9000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1982</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96">
-        <v>1848</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96">
-        <v>891945580</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1993</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>2712</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97">
-        <v>2934156957</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1997</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>32860</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98">
-        <v>27312828123.900002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2002</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99">
-        <v>61</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99">
-        <v>164119078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2010</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100">
-        <v>193686</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <v>30709556862.709999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2007</v>
-      </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>2365738</v>
-      </c>
-      <c r="D101">
-        <v>236463604020.34399</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2015</v>
-      </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102">
-        <v>1518592</v>
-      </c>
-      <c r="D102">
-        <v>184321346847.46301</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2019</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>5182397</v>
-      </c>
-      <c r="D103">
-        <v>300238067280.841</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="D55" s="5">
+        <v>6668903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>2024</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104">
+      <c r="B56" s="5">
+        <v>144392711927.34601</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
         <v>1586095</v>
       </c>
-      <c r="D104">
-        <v>144392711927.34601</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>2001</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>230294</v>
-      </c>
-      <c r="D105">
-        <v>134219432414.552</v>
-      </c>
-      <c r="E105">
-        <v>134219432360.66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2005</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>984485</v>
-      </c>
-      <c r="D106">
-        <v>195075945793.474</v>
-      </c>
-      <c r="E106">
-        <v>195075945797.07001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1992</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107">
-        <v>240574</v>
-      </c>
-      <c r="D107">
-        <v>123406660550</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1996</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108">
-        <v>260836</v>
-      </c>
-      <c r="D108">
-        <v>119666794871</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>2000</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>26900</v>
-      </c>
-      <c r="D109">
-        <v>1652230442.4354</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>2005</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>72295.390599999999</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>2006</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="D111">
-        <v>1542.89</v>
-      </c>
-      <c r="E111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>2012</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>196335</v>
-      </c>
-      <c r="D112">
-        <v>8665560052.6476994</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>2013</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113">
-        <v>215513</v>
-      </c>
-      <c r="D113">
-        <v>8022519483.8234997</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>2016</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114">
-        <v>2764158</v>
-      </c>
-      <c r="D114">
-        <v>228728927819.09601</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1966</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1974</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116">
-        <v>47557300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1983</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>1648</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117">
-        <v>1197340749.1500001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1984</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118">
-        <v>1924</v>
-      </c>
-      <c r="D118" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118">
-        <v>1181650120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1987</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119">
-        <v>2559</v>
-      </c>
-      <c r="D119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119">
-        <v>4113977529</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1992</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120">
-        <v>2400</v>
-      </c>
-      <c r="D120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120">
-        <v>2566210274</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1994</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121">
-        <v>2992</v>
-      </c>
-      <c r="D121" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121">
-        <v>16716838097.27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1998</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122">
-        <v>56879</v>
-      </c>
-      <c r="D122" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122">
-        <v>30500791029.419998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>2004</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123">
-        <v>57</v>
-      </c>
-      <c r="D123" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123">
-        <v>18748958.489999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>2008</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124">
-        <v>51</v>
-      </c>
-      <c r="D124" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124">
-        <v>28037269.91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2012</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125">
-        <v>202203</v>
-      </c>
-      <c r="D125" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125">
-        <v>9359030870.9200001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>2019</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126">
-        <v>9584</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126">
-        <v>988882448.08000004</v>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5">
+        <v>12947050534703.943</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3856052167982.7505</v>
+      </c>
+      <c r="D57" s="5">
+        <v>103378029</v>
       </c>
     </row>
   </sheetData>
@@ -7210,6 +7730,4597 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AF368-6265-44AE-B62E-549F07DE05B2}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B114" sqref="A1:E126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1939319</v>
+      </c>
+      <c r="D2">
+        <v>196075245031.125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3350079</v>
+      </c>
+      <c r="D3">
+        <v>530618207041.77502</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2059620</v>
+      </c>
+      <c r="D4">
+        <v>247856689926.487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6667077</v>
+      </c>
+      <c r="D5">
+        <v>757169854900.13599</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>643369</v>
+      </c>
+      <c r="D6">
+        <v>178740249156.59299</v>
+      </c>
+      <c r="E6">
+        <v>178740249115.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1272695</v>
+      </c>
+      <c r="D7">
+        <v>335795205672.448</v>
+      </c>
+      <c r="E7">
+        <v>335795205319.23999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1988</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>7652670</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1990</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>217182</v>
+      </c>
+      <c r="D9">
+        <v>120350129405</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>259810</v>
+      </c>
+      <c r="D10">
+        <v>118132963568</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>710000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>185160</v>
+      </c>
+      <c r="D12">
+        <v>28560945072.699001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>212959</v>
+      </c>
+      <c r="D13">
+        <v>8903852404.9487</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>707263</v>
+      </c>
+      <c r="D14">
+        <v>93960151164.725204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1967</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1977</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>912</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>4405995486.3100004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1988</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1862</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3058722103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1989</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1518</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>3614072753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1990</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1706</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>2710272377.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>89245</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>40535884551.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>13744371.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>4808265.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2011</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>202959</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>9815112263.5699997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>238058</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>10660006571.110001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>216286</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>9549372257.8400002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2761714</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>227629021271.14001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>52018</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>15853534875.950001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>411732</v>
+      </c>
+      <c r="D30">
+        <v>88847752490.149506</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>539170</v>
+      </c>
+      <c r="D31">
+        <v>107507962598.67599</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2008</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>2565289</v>
+      </c>
+      <c r="D32">
+        <v>269822179140.09399</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3205469</v>
+      </c>
+      <c r="D33">
+        <v>529909130663.95502</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4231649</v>
+      </c>
+      <c r="D34">
+        <v>287216989832.93597</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5174110</v>
+      </c>
+      <c r="D35">
+        <v>323284502297.966</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2022</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6645255</v>
+      </c>
+      <c r="D36">
+        <v>693388861275.23096</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>291423</v>
+      </c>
+      <c r="D37">
+        <v>156512904036.845</v>
+      </c>
+      <c r="E37">
+        <v>156512903996.67999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2008</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1940283</v>
+      </c>
+      <c r="D38">
+        <v>258154989793.992</v>
+      </c>
+      <c r="E38">
+        <v>272056913677.82999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1297596</v>
+      </c>
+      <c r="D39">
+        <v>289532452981.40302</v>
+      </c>
+      <c r="E39">
+        <v>289532452747.51001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>1825</v>
+      </c>
+      <c r="D40">
+        <v>2426093388.1199002</v>
+      </c>
+      <c r="E40">
+        <v>2425955277.3000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1989</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>2813</v>
+      </c>
+      <c r="D41">
+        <v>1636683946</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1995</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>239997</v>
+      </c>
+      <c r="D42">
+        <v>118040376008</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>271684</v>
+      </c>
+      <c r="D43">
+        <v>124700768016.39999</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2004</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>5162632.1264000004</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2008</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>122882</v>
+      </c>
+      <c r="D45">
+        <v>6213923641.3578997</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2009</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>161852</v>
+      </c>
+      <c r="D46">
+        <v>7259463589.8626003</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1962</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>5696246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1980</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>1214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>297556850.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1991</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>1949</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>1600668398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1995</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>4670</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>3652587545.8699999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>26879</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>298272849.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>9461085.0800000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>19400568.879999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2017</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>727410</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>93322131891.389999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>567750</v>
+      </c>
+      <c r="D56">
+        <v>205302457889.95599</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2003</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>763966</v>
+      </c>
+      <c r="D57">
+        <v>139125853330.78601</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>1358521</v>
+      </c>
+      <c r="D58">
+        <v>160481119817.258</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2009</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2252925</v>
+      </c>
+      <c r="D59">
+        <v>281925405610.492</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2017</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>4185509</v>
+      </c>
+      <c r="D60">
+        <v>417317345117.92603</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2003</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>419921</v>
+      </c>
+      <c r="D61">
+        <v>185739677440.67401</v>
+      </c>
+      <c r="E61">
+        <v>185739677438.85001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1490332</v>
+      </c>
+      <c r="D62">
+        <v>213436271775.83701</v>
+      </c>
+      <c r="E62">
+        <v>213436271805.73999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2009</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>1244486</v>
+      </c>
+      <c r="D63">
+        <v>258842991899.19901</v>
+      </c>
+      <c r="E63">
+        <v>258842991767.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>638133.56999999995</v>
+      </c>
+      <c r="E64">
+        <v>638133.56999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1991</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>249091</v>
+      </c>
+      <c r="D65">
+        <v>136154193844</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1993</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>227903</v>
+      </c>
+      <c r="D66">
+        <v>121373382142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1997</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>256866</v>
+      </c>
+      <c r="D67">
+        <v>117203970180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2002</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>2387026.2812999999</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2003</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>4380838</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2007</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2011</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>194948</v>
+      </c>
+      <c r="D71">
+        <v>8425313236.6323004</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2856181</v>
+      </c>
+      <c r="D72">
+        <v>257359629071.81299</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1985</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>1799</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>1551420893.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1986</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1838</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>1187949278.8499999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1996</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>8777</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>4150158274.9099998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2006</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>11097787.640000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2009</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>45798293.759999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2015</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>2856429</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>255471009664.10001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>4718</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>59436817.880000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>11105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>2467461929.3000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>11544</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1247462476.8199999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2006</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>2307757</v>
+      </c>
+      <c r="D82">
+        <v>217568965355.76999</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2012</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>2927664</v>
+      </c>
+      <c r="D83">
+        <v>511409029783.34497</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2013</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>2276754</v>
+      </c>
+      <c r="D84">
+        <v>453087824485.38202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>2311888</v>
+      </c>
+      <c r="D85">
+        <v>436516563400.05603</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>5021482</v>
+      </c>
+      <c r="D86">
+        <v>333366978403.80603</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2007</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>1746346</v>
+      </c>
+      <c r="D87">
+        <v>233166098489.45901</v>
+      </c>
+      <c r="E87">
+        <v>233166098492.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2017</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>-348007.54</v>
+      </c>
+      <c r="E88">
+        <v>-348007.54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>1383766</v>
+      </c>
+      <c r="D89">
+        <v>268228215484.06601</v>
+      </c>
+      <c r="E89">
+        <v>268228227633.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2021</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>1175861</v>
+      </c>
+      <c r="D90">
+        <v>307561417612.5</v>
+      </c>
+      <c r="E90">
+        <v>307562279781.47998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2022</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>899115.31980000006</v>
+      </c>
+      <c r="E91">
+        <v>881986.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1987</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>-171000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1994</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>230094</v>
+      </c>
+      <c r="D93">
+        <v>117964116539</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1970</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1981</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>1809</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>2736482040.9000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1982</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>1848</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>891945580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1993</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>2712</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>2934156957</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1997</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>32860</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>27312828123.900002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2002</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>61</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>164119078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>193686</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>30709556862.709999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2007</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>2365738</v>
+      </c>
+      <c r="D101">
+        <v>236463604020.34399</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2015</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1518592</v>
+      </c>
+      <c r="D102">
+        <v>184321346847.46301</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>5182397</v>
+      </c>
+      <c r="D103">
+        <v>300238067280.841</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1586095</v>
+      </c>
+      <c r="D104">
+        <v>144392711927.34601</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2001</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>230294</v>
+      </c>
+      <c r="D105">
+        <v>134219432414.552</v>
+      </c>
+      <c r="E105">
+        <v>134219432360.66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2005</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>984485</v>
+      </c>
+      <c r="D106">
+        <v>195075945793.474</v>
+      </c>
+      <c r="E106">
+        <v>195075945797.07001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1992</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>240574</v>
+      </c>
+      <c r="D107">
+        <v>123406660550</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1996</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>260836</v>
+      </c>
+      <c r="D108">
+        <v>119666794871</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2000</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>26900</v>
+      </c>
+      <c r="D109">
+        <v>1652230442.4354</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2005</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>72295.390599999999</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2006</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>1542.89</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2012</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>196335</v>
+      </c>
+      <c r="D112">
+        <v>8665560052.6476994</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2013</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>215513</v>
+      </c>
+      <c r="D113">
+        <v>8022519483.8234997</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2016</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>2764158</v>
+      </c>
+      <c r="D114">
+        <v>228728927819.09601</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1966</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1974</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>47557300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1983</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>1648</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>1197340749.1500001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1984</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>1924</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1181650120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1987</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>2559</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>4113977529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1992</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>2400</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>2566210274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1994</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>2992</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>16716838097.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1998</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>56879</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>30500791029.419998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2004</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>57</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>18748958.489999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2008</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>51</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>28037269.91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2012</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>202203</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>9359030870.9200001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2019</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>9584</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>988882448.08000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA70F4-BD09-4DAF-B19E-BAF9846DFDDB}">
+  <dimension ref="A3:D174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5696246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5696246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>47557300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>47557300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B18" s="6">
+        <v>912</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4405995486.3100004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>912</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4405995486.3100004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1214</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>297556850.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1214</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>297556850.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2736482040.9000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2736482040.9000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1848</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>891945580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1848</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>891945580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1648</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1197340749.1500001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1648</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1197340749.1500001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1924</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1181650120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1924</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1181650120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1799</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1551420893.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1799</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1551420893.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1838</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1187949278.8499999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1838</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1187949278.8499999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2561</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-171000</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4113977529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-171000</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2559</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4113977529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1919</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7652670</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3058722103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="6">
+        <v>57</v>
+      </c>
+      <c r="C38" s="6">
+        <v>7652670</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1862</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3058722103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4331</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1636683946</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3614072753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2813</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1636683946</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1518</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3614072753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B43" s="6">
+        <v>218888</v>
+      </c>
+      <c r="C43" s="6">
+        <v>120350129405</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2710272377.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <v>217182</v>
+      </c>
+      <c r="C44" s="6">
+        <v>120350129405</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1706</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2710272377.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B46" s="6">
+        <v>251040</v>
+      </c>
+      <c r="C46" s="6">
+        <v>136154193844</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1600668398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6">
+        <v>249091</v>
+      </c>
+      <c r="C47" s="6">
+        <v>136154193844</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1949</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1600668398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="6">
+        <v>242974</v>
+      </c>
+      <c r="C49" s="6">
+        <v>123406660550</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2566210274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6">
+        <v>240574</v>
+      </c>
+      <c r="C50" s="6">
+        <v>123406660550</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2400</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2566210274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B52" s="6">
+        <v>230615</v>
+      </c>
+      <c r="C52" s="6">
+        <v>121373382142</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2934156957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6">
+        <v>227903</v>
+      </c>
+      <c r="C53" s="6">
+        <v>121373382142</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2712</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2934156957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B55" s="6">
+        <v>233086</v>
+      </c>
+      <c r="C55" s="6">
+        <v>117964116539</v>
+      </c>
+      <c r="D55" s="6">
+        <v>16716838097.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <v>230094</v>
+      </c>
+      <c r="C56" s="6">
+        <v>117964116539</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2992</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>16716838097.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B58" s="6">
+        <v>244667</v>
+      </c>
+      <c r="C58" s="6">
+        <v>118040376008</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3652587545.8699999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="6">
+        <v>239997</v>
+      </c>
+      <c r="C59" s="6">
+        <v>118040376008</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="6">
+        <v>4670</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>3652587545.8699999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B61" s="6">
+        <v>269613</v>
+      </c>
+      <c r="C61" s="6">
+        <v>119666794871</v>
+      </c>
+      <c r="D61" s="6">
+        <v>4150158274.9099998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="6">
+        <v>260836</v>
+      </c>
+      <c r="C62" s="6">
+        <v>119666794871</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="6">
+        <v>8777</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4150158274.9099998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B64" s="6">
+        <v>289726</v>
+      </c>
+      <c r="C64" s="6">
+        <v>117203970180</v>
+      </c>
+      <c r="D64" s="6">
+        <v>27312828123.900002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="6">
+        <v>256866</v>
+      </c>
+      <c r="C65" s="6">
+        <v>117203970180</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="6">
+        <v>32860</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>27312828123.900002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B67" s="6">
+        <v>316689</v>
+      </c>
+      <c r="C67" s="6">
+        <v>118132963568</v>
+      </c>
+      <c r="D67" s="6">
+        <v>30500791029.419998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="6">
+        <v>259810</v>
+      </c>
+      <c r="C68" s="6">
+        <v>118132963568</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="6">
+        <v>56879</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>30500791029.419998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B70" s="6">
+        <v>360929</v>
+      </c>
+      <c r="C70" s="6">
+        <v>124700768016.39999</v>
+      </c>
+      <c r="D70" s="6">
+        <v>40535884551.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="6">
+        <v>271684</v>
+      </c>
+      <c r="C71" s="6">
+        <v>124700768016.39999</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="6">
+        <v>89245</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>40535884551.82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B73" s="6">
+        <v>621529</v>
+      </c>
+      <c r="C73" s="6">
+        <v>206954688332.39139</v>
+      </c>
+      <c r="D73" s="6">
+        <v>298272849.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="6">
+        <v>567750</v>
+      </c>
+      <c r="C74" s="6">
+        <v>205302457889.95599</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="6">
+        <v>26900</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1652230442.4354</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="6">
+        <v>26879</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>298272849.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B77" s="6">
+        <v>642080</v>
+      </c>
+      <c r="C77" s="6">
+        <v>223070684718.60352</v>
+      </c>
+      <c r="D77" s="6">
+        <v>134233176731.75999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="6">
+        <v>411732</v>
+      </c>
+      <c r="C78" s="6">
+        <v>88847752490.149506</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="6">
+        <v>230328</v>
+      </c>
+      <c r="C79" s="6">
+        <v>134222343228.45399</v>
+      </c>
+      <c r="D79" s="6">
+        <v>134230472446.53999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="6">
+        <v>10</v>
+      </c>
+      <c r="C80" s="6">
+        <v>589000</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="6">
+        <v>10</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2704285.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B82" s="6">
+        <v>830676</v>
+      </c>
+      <c r="C82" s="6">
+        <v>264022635574.55231</v>
+      </c>
+      <c r="D82" s="6">
+        <v>156677023074.67999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="6">
+        <v>539170</v>
+      </c>
+      <c r="C83" s="6">
+        <v>107507962598.67599</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="6">
+        <v>291462</v>
+      </c>
+      <c r="C84" s="6">
+        <v>156513300050.595</v>
+      </c>
+      <c r="D84" s="6">
+        <v>156673991853.39999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="6">
+        <v>22</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1372925.2812999999</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="6">
+        <v>22</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>3031221.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B87" s="6">
+        <v>1183925</v>
+      </c>
+      <c r="C87" s="6">
+        <v>324871567693.96002</v>
+      </c>
+      <c r="D87" s="6">
+        <v>185744485704.60999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="6">
+        <v>763966</v>
+      </c>
+      <c r="C88" s="6">
+        <v>139125853330.78601</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="6">
+        <v>419937</v>
+      </c>
+      <c r="C89" s="6">
+        <v>185742657627.17401</v>
+      </c>
+      <c r="D89" s="6">
+        <v>185743788104.60999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="6">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6">
+        <v>3056736</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="6">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <v>697600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B92" s="6">
+        <v>2001961</v>
+      </c>
+      <c r="C92" s="6">
+        <v>339241498195.4649</v>
+      </c>
+      <c r="D92" s="6">
+        <v>178758998074.12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1358521</v>
+      </c>
+      <c r="C93" s="6">
+        <v>160481119817.258</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6">
+        <v>643412</v>
+      </c>
+      <c r="C94" s="6">
+        <v>178758400406.14301</v>
+      </c>
+      <c r="D94" s="6">
+        <v>178756981809.17999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="6">
+        <v>14</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1977972.0639</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="6">
+        <v>14</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <v>2016264.94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B97" s="6">
+        <v>2923896</v>
+      </c>
+      <c r="C97" s="6">
+        <v>391161003830.87952</v>
+      </c>
+      <c r="D97" s="6">
+        <v>195085406882.14999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1939319</v>
+      </c>
+      <c r="C98" s="6">
+        <v>196075245031.125</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="6">
+        <v>984563</v>
+      </c>
+      <c r="C99" s="6">
+        <v>195085703055.67401</v>
+      </c>
+      <c r="D99" s="6">
+        <v>195085351734.26999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="6">
+        <v>7</v>
+      </c>
+      <c r="C100" s="6">
+        <v>55744.080499999996</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="6">
+        <v>7</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>55147.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B102" s="6">
+        <v>3798161</v>
+      </c>
+      <c r="C102" s="6">
+        <v>431016975627.44702</v>
+      </c>
+      <c r="D102" s="6">
+        <v>213447369593.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="6">
+        <v>2307757</v>
+      </c>
+      <c r="C103" s="6">
+        <v>217568965355.76999</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="6">
+        <v>1490396</v>
+      </c>
+      <c r="C104" s="6">
+        <v>213448008728.78699</v>
+      </c>
+      <c r="D104" s="6">
+        <v>213447362879.69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6">
+        <v>4</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1542.89</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="6">
+        <v>4</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <v>6713.69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B107" s="6">
+        <v>4112160</v>
+      </c>
+      <c r="C107" s="6">
+        <v>469649103078.68298</v>
+      </c>
+      <c r="D107" s="6">
+        <v>233185499061.07001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="6">
+        <v>2365738</v>
+      </c>
+      <c r="C108" s="6">
+        <v>236463604020.34399</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="6">
+        <v>1746422</v>
+      </c>
+      <c r="C109" s="6">
+        <v>233185499058.33899</v>
+      </c>
+      <c r="D109" s="6">
+        <v>233185499061.07001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B110" s="6">
+        <v>4628498</v>
+      </c>
+      <c r="C110" s="6">
+        <v>534219266379.30768</v>
+      </c>
+      <c r="D110" s="6">
+        <v>272084950947.73999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="6">
+        <v>2565289</v>
+      </c>
+      <c r="C111" s="6">
+        <v>269822179140.09399</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="6">
+        <v>1940334</v>
+      </c>
+      <c r="C112" s="6">
+        <v>258183027063.90201</v>
+      </c>
+      <c r="D112" s="6">
+        <v>272084950947.73999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6">
+        <v>122875</v>
+      </c>
+      <c r="C113" s="6">
+        <v>6214060175.3116999</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B114" s="6">
+        <v>3659348</v>
+      </c>
+      <c r="C114" s="6">
+        <v>548073652598.31366</v>
+      </c>
+      <c r="D114" s="6">
+        <v>258888790060.82001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2252925</v>
+      </c>
+      <c r="C115" s="6">
+        <v>281925405610.492</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="6">
+        <v>1244572</v>
+      </c>
+      <c r="C116" s="6">
+        <v>258888790192.95901</v>
+      </c>
+      <c r="D116" s="6">
+        <v>258888790060.82001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6">
+        <v>161851</v>
+      </c>
+      <c r="C117" s="6">
+        <v>7259456794.8626003</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B118" s="6">
+        <v>3728925</v>
+      </c>
+      <c r="C118" s="6">
+        <v>589888708977.18396</v>
+      </c>
+      <c r="D118" s="6">
+        <v>30709556862.709999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="6">
+        <v>3350079</v>
+      </c>
+      <c r="C119" s="6">
+        <v>530618207041.77502</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="6">
+        <v>193686</v>
+      </c>
+      <c r="C120" s="6">
+        <v>30709556862.709999</v>
+      </c>
+      <c r="D120" s="6">
+        <v>30709556862.709999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="6">
+        <v>185160</v>
+      </c>
+      <c r="C121" s="6">
+        <v>28560945072.699001</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B122" s="6">
+        <v>3603376</v>
+      </c>
+      <c r="C122" s="6">
+        <v>548149556164.15735</v>
+      </c>
+      <c r="D122" s="6">
+        <v>9815112263.5699997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="6">
+        <v>3205469</v>
+      </c>
+      <c r="C123" s="6">
+        <v>529909130663.95502</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="6">
+        <v>202959</v>
+      </c>
+      <c r="C124" s="6">
+        <v>9815112263.5699997</v>
+      </c>
+      <c r="D124" s="6">
+        <v>9815112263.5699997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="6">
+        <v>194948</v>
+      </c>
+      <c r="C125" s="6">
+        <v>8425313236.6323004</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B126" s="6">
+        <v>3326204</v>
+      </c>
+      <c r="C126" s="6">
+        <v>529434258840.48267</v>
+      </c>
+      <c r="D126" s="6">
+        <v>9359669004.4899998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2927664</v>
+      </c>
+      <c r="C127" s="6">
+        <v>511409029783.34497</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="6">
+        <v>202205</v>
+      </c>
+      <c r="C128" s="6">
+        <v>9359669004.4899998</v>
+      </c>
+      <c r="D128" s="6">
+        <v>9359669004.4899998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="6">
+        <v>196335</v>
+      </c>
+      <c r="C129" s="6">
+        <v>8665560052.6476994</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B130" s="6">
+        <v>2730325</v>
+      </c>
+      <c r="C130" s="6">
+        <v>471770350540.31549</v>
+      </c>
+      <c r="D130" s="6">
+        <v>10660006571.110001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="6">
+        <v>2276754</v>
+      </c>
+      <c r="C131" s="6">
+        <v>453087824485.38202</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="6">
+        <v>238058</v>
+      </c>
+      <c r="C132" s="6">
+        <v>10660006571.110001</v>
+      </c>
+      <c r="D132" s="6">
+        <v>10660006571.110001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6">
+        <v>215513</v>
+      </c>
+      <c r="C133" s="6">
+        <v>8022519483.8234997</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B134" s="6">
+        <v>2741133</v>
+      </c>
+      <c r="C134" s="6">
+        <v>454969788062.84473</v>
+      </c>
+      <c r="D134" s="6">
+        <v>9549372257.8400002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="6">
+        <v>2311888</v>
+      </c>
+      <c r="C135" s="6">
+        <v>436516563400.05603</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="6">
+        <v>216286</v>
+      </c>
+      <c r="C136" s="6">
+        <v>9549372257.8400002</v>
+      </c>
+      <c r="D136" s="6">
+        <v>9549372257.8400002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6">
+        <v>212959</v>
+      </c>
+      <c r="C137" s="6">
+        <v>8903852404.9487</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B138" s="6">
+        <v>7231202</v>
+      </c>
+      <c r="C138" s="6">
+        <v>697151985583.37598</v>
+      </c>
+      <c r="D138" s="6">
+        <v>255471009664.10001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1518592</v>
+      </c>
+      <c r="C139" s="4">
+        <v>184321346847.46301</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="4">
+        <v>2856429</v>
+      </c>
+      <c r="C140" s="4">
+        <v>255471009664.10001</v>
+      </c>
+      <c r="D140" s="4">
+        <v>255471009664.10001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="4">
+        <v>2856181</v>
+      </c>
+      <c r="C141" s="4">
+        <v>257359629071.81299</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B142" s="6">
+        <v>7585492</v>
+      </c>
+      <c r="C142" s="6">
+        <v>704214639016.72302</v>
+      </c>
+      <c r="D142" s="6">
+        <v>227629021271.14001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="5">
+        <v>2059620</v>
+      </c>
+      <c r="C143" s="5">
+        <v>247856689926.487</v>
+      </c>
+      <c r="D143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2761714</v>
+      </c>
+      <c r="C144" s="5">
+        <v>227629021271.14001</v>
+      </c>
+      <c r="D144" s="5">
+        <v>227629021271.14001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2764158</v>
+      </c>
+      <c r="C145" s="5">
+        <v>228728927819.09601</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B146" s="6">
+        <v>5620202</v>
+      </c>
+      <c r="C146" s="6">
+        <v>604599273166.50122</v>
+      </c>
+      <c r="D146" s="6">
+        <v>93321783883.850006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="5">
+        <v>4185509</v>
+      </c>
+      <c r="C147" s="5">
+        <v>417317345117.92603</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="5">
+        <v>727431</v>
+      </c>
+      <c r="C148" s="5">
+        <v>93321783883.850006</v>
+      </c>
+      <c r="D148" s="5">
+        <v>93321783883.850006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="5">
+        <v>707262</v>
+      </c>
+      <c r="C149" s="5">
+        <v>93960144164.725204</v>
+      </c>
+      <c r="D149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B150" s="6">
+        <v>5620133</v>
+      </c>
+      <c r="C150" s="6">
+        <v>555504642134.88196</v>
+      </c>
+      <c r="D150" s="6">
+        <v>268287664451.82001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="6">
+        <v>4231649</v>
+      </c>
+      <c r="C151" s="6">
+        <v>287216989832.93597</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="6">
+        <v>1388484</v>
+      </c>
+      <c r="C152" s="6">
+        <v>268287652301.94601</v>
+      </c>
+      <c r="D152" s="6">
+        <v>268287664451.82001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B153" s="6">
+        <v>6489577</v>
+      </c>
+      <c r="C153" s="6">
+        <v>590759402710.32397</v>
+      </c>
+      <c r="D153" s="6">
+        <v>290521335195.59003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="6">
+        <v>5182397</v>
+      </c>
+      <c r="C154" s="6">
+        <v>300238067280.841</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="6">
+        <v>1307180</v>
+      </c>
+      <c r="C155" s="6">
+        <v>290521335429.48297</v>
+      </c>
+      <c r="D155" s="6">
+        <v>290521335195.59003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B156" s="6">
+        <v>6305282</v>
+      </c>
+      <c r="C156" s="6">
+        <v>669162184076.25403</v>
+      </c>
+      <c r="D156" s="6">
+        <v>338262667248.53998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="6">
+        <v>5021482</v>
+      </c>
+      <c r="C157" s="6">
+        <v>333366978403.80603</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="6">
+        <v>1272695</v>
+      </c>
+      <c r="C158" s="6">
+        <v>335795205672.448</v>
+      </c>
+      <c r="D158" s="6">
+        <v>335795205319.23999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="6">
+        <v>11105</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6">
+        <v>2467461929.3000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B160" s="6">
+        <v>6401989</v>
+      </c>
+      <c r="C160" s="6">
+        <v>630845919910.46606</v>
+      </c>
+      <c r="D160" s="6">
+        <v>323415814657.42999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="6">
+        <v>5174110</v>
+      </c>
+      <c r="C161" s="6">
+        <v>323284502297.966</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="6">
+        <v>1175861</v>
+      </c>
+      <c r="C162" s="6">
+        <v>307561417612.5</v>
+      </c>
+      <c r="D162" s="6">
+        <v>307562279781.47998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="6">
+        <v>52018</v>
+      </c>
+      <c r="C163" s="6">
+        <v>0</v>
+      </c>
+      <c r="D163" s="6">
+        <v>15853534875.950001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B164" s="6">
+        <v>6656811</v>
+      </c>
+      <c r="C164" s="6">
+        <v>693389760390.55078</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1248344463.6799998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="6">
+        <v>6645255</v>
+      </c>
+      <c r="C165" s="6">
+        <v>693388861275.23096</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="6">
+        <v>12</v>
+      </c>
+      <c r="C166" s="6">
+        <v>899115.31980000006</v>
+      </c>
+      <c r="D166" s="6">
+        <v>881986.86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="6">
+        <v>11544</v>
+      </c>
+      <c r="C167" s="6">
+        <v>0</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1247462476.8199999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B168" s="6">
+        <v>6668903</v>
+      </c>
+      <c r="C168" s="6">
+        <v>759595948288.25586</v>
+      </c>
+      <c r="D168" s="6">
+        <v>2425955277.3000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="6">
+        <v>6667077</v>
+      </c>
+      <c r="C169" s="6">
+        <v>757169854900.13599</v>
+      </c>
+      <c r="D169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="6">
+        <v>1825</v>
+      </c>
+      <c r="C170" s="6">
+        <v>2426093388.1199002</v>
+      </c>
+      <c r="D170" s="6">
+        <v>2425955277.3000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="6">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6">
+        <v>0</v>
+      </c>
+      <c r="D171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B172" s="6">
+        <v>1586095</v>
+      </c>
+      <c r="C172" s="6">
+        <v>144392711927.34601</v>
+      </c>
+      <c r="D172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1586095</v>
+      </c>
+      <c r="C173" s="6">
+        <v>144392711927.34601</v>
+      </c>
+      <c r="D173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="6">
+        <v>103377925</v>
+      </c>
+      <c r="C174" s="6">
+        <v>13594747726558.662</v>
+      </c>
+      <c r="D174" s="6">
+        <v>3856052167982.7495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A450B-56EA-4208-BCCD-B91D41942492}">
   <dimension ref="A1:E118"/>
   <sheetViews>
